--- a/market_observed_usts_auctioned_after_2005.xlsx
+++ b/market_observed_usts_auctioned_after_2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="249">
   <si>
     <t>Action</t>
   </si>
@@ -67,7 +67,10 @@
     <t>time_to_maturity</t>
   </si>
   <si>
-    <t>Buy  Order will be entered for today’s market</t>
+    <t>last_updated</t>
+  </si>
+  <si>
+    <t>View Only  This issue is not available at this time. Please check back starting at 8:30AM ET for updated pricing and availability.</t>
   </si>
   <si>
     <t>US Treasury 4.375% 05/15/2034  91282CKQ3</t>
@@ -76,10 +79,10 @@
     <t>US Treasury BILL 10/01/2024  912797LK1  Recently Issued</t>
   </si>
   <si>
-    <t>US Treasury 4.875% 05/31/2026  91282CKS9  Recently Issued</t>
-  </si>
-  <si>
-    <t>US Treasury 4.625% 05/15/2044  912810UB2  Recently Issued</t>
+    <t>US Treasury 4.875% 05/31/2026  91282CKS9</t>
+  </si>
+  <si>
+    <t>US Treasury 4.625% 05/15/2044  912810UB2</t>
   </si>
   <si>
     <t>US Treasury BILL 11/21/2024  912797LE5</t>
@@ -91,16 +94,16 @@
     <t>US Treasury 4.625% 05/15/2054  912810UA4</t>
   </si>
   <si>
-    <t>US Treasury 4.5% 05/31/2029  91282CKT7  Recently Issued</t>
+    <t>US Treasury 4.5% 05/31/2029  91282CKT7</t>
   </si>
   <si>
     <t>US Treasury BILL 05/15/2025  912797LB1</t>
   </si>
   <si>
-    <t>US Treasury 4.625% 05/31/2031  91282CKU4  Recently Issued</t>
-  </si>
-  <si>
-    <t>US Treasury 2.25% 11/15/2025  912828M56</t>
+    <t>US Treasury 4.625% 05/31/2031  91282CKU4</t>
+  </si>
+  <si>
+    <t>US Treasury 2.875% 11/30/2025  9128285N6</t>
   </si>
   <si>
     <t>US Treasury 2% 11/15/2026  912828U24</t>
@@ -112,7 +115,7 @@
     <t>US Treasury 2.875% 05/15/2028  9128284N7</t>
   </si>
   <si>
-    <t>US Treasury 1.375% 10/31/2028  91282CDF5</t>
+    <t>US Treasury 3.125% 11/15/2028  9128285M8</t>
   </si>
   <si>
     <t>US Treasury 4% 10/31/2029  91282CFT3</t>
@@ -235,7 +238,7 @@
     <t>US Treasury 3% 08/15/2052  912810TJ7</t>
   </si>
   <si>
-    <t>US Treasury 4% 11/15/2052  912810TL2</t>
+    <t>US Treasury 3.625% 02/15/2053  912810TN8</t>
   </si>
   <si>
     <t>US Treasury 3.625% 05/15/2053  912810TR9</t>
@@ -271,7 +274,7 @@
     <t>05/31/2031</t>
   </si>
   <si>
-    <t>11/15/2025</t>
+    <t>11/30/2025</t>
   </si>
   <si>
     <t>11/15/2026</t>
@@ -283,7 +286,7 @@
     <t>05/15/2028</t>
   </si>
   <si>
-    <t>10/31/2028</t>
+    <t>11/15/2028</t>
   </si>
   <si>
     <t>10/31/2029</t>
@@ -406,7 +409,7 @@
     <t>08/15/2052</t>
   </si>
   <si>
-    <t>11/15/2052</t>
+    <t>02/15/2053</t>
   </si>
   <si>
     <t>05/15/2053</t>
@@ -448,7 +451,7 @@
     <t>View  for 91282CKU4 CUSIP</t>
   </si>
   <si>
-    <t>View  for 912828M56 CUSIP</t>
+    <t>View  for 9128285N6 CUSIP</t>
   </si>
   <si>
     <t>View  for 912828U24 CUSIP</t>
@@ -460,7 +463,7 @@
     <t>View  for 9128284N7 CUSIP</t>
   </si>
   <si>
-    <t>View  for 91282CDF5 CUSIP</t>
+    <t>View  for 9128285M8 CUSIP</t>
   </si>
   <si>
     <t>View  for 91282CFT3 CUSIP</t>
@@ -583,7 +586,7 @@
     <t>View  for 912810TJ7 CUSIP</t>
   </si>
   <si>
-    <t>View  for 912810TL2 CUSIP</t>
+    <t>View  for 912810TN8 CUSIP</t>
   </si>
   <si>
     <t>View  for 912810TR9 CUSIP</t>
@@ -619,7 +622,7 @@
     <t>CUSIP 91282CKU4</t>
   </si>
   <si>
-    <t>CUSIP 912828M56</t>
+    <t>CUSIP 9128285N6</t>
   </si>
   <si>
     <t>CUSIP 912828U24</t>
@@ -631,7 +634,7 @@
     <t>CUSIP 9128284N7</t>
   </si>
   <si>
-    <t>CUSIP 91282CDF5</t>
+    <t>CUSIP 9128285M8</t>
   </si>
   <si>
     <t>CUSIP 91282CFT3</t>
@@ -754,7 +757,7 @@
     <t>CUSIP 912810TJ7</t>
   </si>
   <si>
-    <t>CUSIP 912810TL2</t>
+    <t>CUSIP 912810TN8</t>
   </si>
   <si>
     <t>CUSIP 912810TR9</t>
@@ -764,6 +767,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -816,11 +822,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,13 +1122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,81 +1180,87 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>4.375</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G2">
-        <v>99.13672</v>
+        <v>99.07619</v>
       </c>
       <c r="H2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J2">
-        <v>4.483</v>
+        <v>4.491</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>564.71</v>
+        <v>653.87</v>
       </c>
       <c r="M2">
-        <v>248406.51</v>
+        <v>273113.39</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P2">
         <v>10</v>
       </c>
       <c r="Q2">
-        <v>9.95890410958904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.956164383561644</v>
+      </c>
+      <c r="R2" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>98.27500000000001</v>
+        <v>98.357</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1256,846 +1269,894 @@
         <v>15000</v>
       </c>
       <c r="J3">
-        <v>5.384</v>
+        <v>5.124</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M3">
-        <v>982750</v>
+        <v>983570</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P3">
         <v>0.25</v>
       </c>
       <c r="Q3">
-        <v>0.3342465753424658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3315068493150685</v>
+      </c>
+      <c r="R3" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>4.875</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>550</v>
       </c>
       <c r="G4">
-        <v>100.01334</v>
+        <v>100.034</v>
       </c>
       <c r="H4">
         <v>550</v>
       </c>
       <c r="I4">
-        <v>86000</v>
+        <v>77900</v>
       </c>
       <c r="J4">
-        <v>4.868</v>
+        <v>4.857</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>219.77</v>
+        <v>293.03</v>
       </c>
       <c r="M4">
-        <v>550293.16</v>
+        <v>550480.03</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>1.997260273972603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.994520547945206</v>
+      </c>
+      <c r="R4" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>4.625</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G5">
-        <v>98.96006</v>
+        <v>98.86718999999999</v>
       </c>
       <c r="H5">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I5">
-        <v>7000</v>
+        <v>29720</v>
       </c>
       <c r="J5">
-        <v>4.706</v>
+        <v>4.713</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>656.67</v>
+        <v>628.4</v>
       </c>
       <c r="M5">
-        <v>272796.84</v>
+        <v>247796.37</v>
       </c>
       <c r="N5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5">
-        <v>19.96712328767123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>19.96438356164384</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>97.55775</v>
+        <v>97.56100000000001</v>
       </c>
       <c r="H6">
         <v>1000</v>
       </c>
       <c r="I6">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="J6">
-        <v>5.343</v>
+        <v>5.368</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M6">
-        <v>975577.5</v>
+        <v>975610</v>
       </c>
       <c r="N6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P6">
         <v>0.5</v>
       </c>
       <c r="Q6">
-        <v>0.473972602739726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4712328767123288</v>
+      </c>
+      <c r="R6" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>4.5</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="G7">
-        <v>99.52734</v>
+        <v>99.56802999999999</v>
       </c>
       <c r="H7">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="I7">
-        <v>54000</v>
+        <v>59000</v>
       </c>
       <c r="J7">
-        <v>4.673</v>
+        <v>4.658</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L7">
-        <v>1277.85</v>
+        <v>1222.83</v>
       </c>
       <c r="M7">
-        <v>548678.24</v>
+        <v>499062.99</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P7">
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>2.953424657534247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.950684931506849</v>
+      </c>
+      <c r="R7" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>4.625</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G8">
-        <v>99.95313</v>
+        <v>99.71875</v>
       </c>
       <c r="H8">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="J8">
-        <v>4.628</v>
+        <v>4.642</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L8">
-        <v>656.67</v>
+        <v>628.4</v>
       </c>
       <c r="M8">
-        <v>275527.76</v>
+        <v>249925.28</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P8">
         <v>30</v>
       </c>
       <c r="Q8">
-        <v>29.97260273972603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>29.96986301369863</v>
+      </c>
+      <c r="R8" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9">
         <v>250</v>
       </c>
       <c r="G9">
-        <v>100.00781</v>
+        <v>100.03072</v>
       </c>
       <c r="H9">
         <v>250</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>39968</v>
       </c>
       <c r="J9">
-        <v>4.498</v>
+        <v>4.493</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9">
-        <v>92.20999999999999</v>
+        <v>122.95</v>
       </c>
       <c r="M9">
-        <v>250111.74</v>
+        <v>250199.75</v>
       </c>
       <c r="N9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P9">
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.997260273972603</v>
+      </c>
+      <c r="R9" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10">
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>95.28779</v>
+        <v>95.28700000000001</v>
       </c>
       <c r="H10">
         <v>1000</v>
       </c>
       <c r="I10">
-        <v>15000</v>
+        <v>14770</v>
       </c>
       <c r="J10">
-        <v>5.154</v>
+        <v>5.17</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10">
-        <v>952877.92</v>
+        <v>952870</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.9534246575342465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9506849315068493</v>
+      </c>
+      <c r="R10" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>4.625</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11">
         <v>275</v>
       </c>
       <c r="G11">
-        <v>100.77997</v>
+        <v>100.76419</v>
       </c>
       <c r="H11">
         <v>275</v>
       </c>
       <c r="I11">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J11">
-        <v>4.494</v>
+        <v>4.496</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11">
-        <v>104.25</v>
+        <v>139</v>
       </c>
       <c r="M11">
-        <v>277249.16</v>
+        <v>277240.52</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P11">
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.997260273972603</v>
+      </c>
+      <c r="R11" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G12">
-        <v>96.16016</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="H12">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="I12">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="J12">
-        <v>5.031</v>
+        <v>4.997</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12">
-        <v>348.51</v>
+        <v>78.55</v>
       </c>
       <c r="M12">
-        <v>288828.98</v>
+        <v>242553.55</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P12">
         <v>1.5</v>
       </c>
       <c r="Q12">
-        <v>1.457534246575342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.495890410958904</v>
+      </c>
+      <c r="R12" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G13">
-        <v>93.71484</v>
+        <v>93.69922</v>
       </c>
       <c r="H13">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="I13">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J13">
-        <v>4.749</v>
+        <v>4.759</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13">
-        <v>309.78</v>
+        <v>271.74</v>
       </c>
       <c r="M13">
-        <v>281454.31</v>
+        <v>234519.79</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P13">
         <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>2.457534246575342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>2.454794520547945</v>
+      </c>
+      <c r="R13" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2.25</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G14">
-        <v>92.55468999999999</v>
+        <v>92.554</v>
       </c>
       <c r="H14">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I14">
-        <v>10000</v>
+        <v>12984</v>
       </c>
       <c r="J14">
-        <v>4.61</v>
+        <v>4.612</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14">
-        <v>290.42</v>
+        <v>336.28</v>
       </c>
       <c r="M14">
-        <v>231677.14</v>
+        <v>254859.78</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P14">
         <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>3.457534246575342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.454794520547945</v>
+      </c>
+      <c r="R14" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2.875</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G15">
-        <v>93.96875</v>
+        <v>93.976</v>
       </c>
       <c r="H15">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I15">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="J15">
-        <v>4.561</v>
+        <v>4.56</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15">
-        <v>371.09</v>
+        <v>429.69</v>
       </c>
       <c r="M15">
-        <v>235292.97</v>
+        <v>258863.69</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P15">
         <v>4</v>
       </c>
       <c r="Q15">
-        <v>3.956164383561644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>3.953424657534247</v>
+      </c>
+      <c r="R15" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>1.375</v>
+        <v>3.125</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16">
         <v>275</v>
       </c>
       <c r="G16">
-        <v>87.47656000000001</v>
+        <v>94.37548</v>
       </c>
       <c r="H16">
         <v>275</v>
       </c>
       <c r="I16">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>4.542</v>
+        <v>4.536</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16">
-        <v>349.35</v>
+        <v>467.05</v>
       </c>
       <c r="M16">
-        <v>240909.9</v>
+        <v>259999.63</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P16">
         <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>4.419178082191781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>4.457534246575342</v>
+      </c>
+      <c r="R16" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G17">
-        <v>97.52343999999999</v>
+        <v>97.56</v>
       </c>
       <c r="H17">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I17">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="J17">
-        <v>4.521</v>
+        <v>4.513</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L17">
-        <v>1016.3</v>
+        <v>951.09</v>
       </c>
       <c r="M17">
-        <v>269205.75</v>
+        <v>244851.09</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P17">
         <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>5.419178082191781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>5.416438356164384</v>
+      </c>
+      <c r="R17" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>3.5</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G18">
-        <v>94.80359</v>
+        <v>94.818</v>
       </c>
       <c r="H18">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I18">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J18">
-        <v>4.511</v>
+        <v>4.509</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L18">
-        <v>889.27</v>
+        <v>832.2</v>
       </c>
       <c r="M18">
-        <v>261599.15</v>
+        <v>237877.2</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P18">
         <v>6</v>
       </c>
       <c r="Q18">
-        <v>5.915068493150685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>5.912328767123288</v>
+      </c>
+      <c r="R18" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>4.875</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>275</v>
       </c>
       <c r="G19">
-        <v>102.00191</v>
+        <v>102.02141</v>
       </c>
       <c r="H19">
         <v>275</v>
@@ -2104,2277 +2165,2406 @@
         <v>8000</v>
       </c>
       <c r="J19">
-        <v>4.511</v>
+        <v>4.507</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19">
-        <v>1238.62</v>
+        <v>1275.05</v>
       </c>
       <c r="M19">
-        <v>281743.86</v>
+        <v>281833.92</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P19">
         <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>6.419178082191781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.416438356164384</v>
+      </c>
+      <c r="R19" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1.375</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20">
         <v>250</v>
       </c>
       <c r="G20">
-        <v>80.48</v>
+        <v>80.35938</v>
       </c>
       <c r="H20">
         <v>250</v>
       </c>
       <c r="I20">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="J20">
-        <v>4.487</v>
+        <v>4.51</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20">
-        <v>177.48</v>
+        <v>186.82</v>
       </c>
       <c r="M20">
-        <v>201377.48</v>
+        <v>201085.26</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P20">
         <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>7.46027397260274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>7.457534246575342</v>
+      </c>
+      <c r="R20" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>2.875</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G21">
-        <v>89.24111000000001</v>
+        <v>89.21657</v>
       </c>
       <c r="H21">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I21">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="J21">
-        <v>4.5</v>
+        <v>4.504</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21">
-        <v>408.2</v>
+        <v>390.63</v>
       </c>
       <c r="M21">
-        <v>245821.26</v>
+        <v>223432.06</v>
       </c>
       <c r="N21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21">
         <v>8</v>
       </c>
       <c r="Q21">
-        <v>7.958904109589041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.956164383561644</v>
+      </c>
+      <c r="R21" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>4.125</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22">
         <v>275</v>
       </c>
       <c r="G22">
-        <v>97.41406000000001</v>
+        <v>97.37349</v>
       </c>
       <c r="H22">
         <v>275</v>
       </c>
       <c r="I22">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="J22">
-        <v>4.496</v>
+        <v>4.502</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22">
-        <v>585.6799999999999</v>
+        <v>616.51</v>
       </c>
       <c r="M22">
-        <v>268474.35</v>
+        <v>268393.6</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P22">
         <v>8.5</v>
       </c>
       <c r="Q22">
-        <v>8.463013698630137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>8.46027397260274</v>
+      </c>
+      <c r="R22" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>3.375</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23">
         <v>250</v>
       </c>
       <c r="G23">
-        <v>91.84375</v>
+        <v>91.78022</v>
       </c>
       <c r="H23">
         <v>250</v>
       </c>
       <c r="I23">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="J23">
-        <v>4.492</v>
+        <v>4.501</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L23">
-        <v>435.63</v>
+        <v>458.56</v>
       </c>
       <c r="M23">
-        <v>230045.01</v>
+        <v>229909.1</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P23">
         <v>9</v>
       </c>
       <c r="Q23">
-        <v>8.95890410958904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>8.956164383561644</v>
+      </c>
+      <c r="R23" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>4.5</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24">
         <v>300</v>
       </c>
       <c r="G24">
-        <v>100.0625</v>
+        <v>100.013</v>
       </c>
       <c r="H24">
         <v>300</v>
       </c>
       <c r="I24">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J24">
-        <v>4.492</v>
+        <v>4.498</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L24">
-        <v>697.01</v>
+        <v>733.7</v>
       </c>
       <c r="M24">
-        <v>300884.51</v>
+        <v>300772.7</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P24">
         <v>9.5</v>
       </c>
       <c r="Q24">
-        <v>9.463013698630137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>9.46027397260274</v>
+      </c>
+      <c r="R24" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>4.375</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G25">
-        <v>99.13672</v>
+        <v>99.07619</v>
       </c>
       <c r="H25">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I25">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J25">
-        <v>4.483</v>
+        <v>4.491</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25">
-        <v>564.71</v>
+        <v>653.87</v>
       </c>
       <c r="M25">
-        <v>248406.51</v>
+        <v>273113.39</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P25">
         <v>10.5</v>
       </c>
       <c r="Q25">
-        <v>9.95890410958904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>9.956164383561644</v>
+      </c>
+      <c r="R25" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>4.5</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26">
         <v>250</v>
       </c>
       <c r="G26">
-        <v>101.21875</v>
+        <v>100.87891</v>
       </c>
       <c r="H26">
         <v>250</v>
       </c>
       <c r="I26">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J26">
-        <v>4.365</v>
+        <v>4.402</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L26">
-        <v>3368.82</v>
+        <v>3399.73</v>
       </c>
       <c r="M26">
-        <v>256415.7</v>
+        <v>255597</v>
       </c>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P26">
         <v>11</v>
       </c>
       <c r="Q26">
-        <v>11.71506849315069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>11.71232876712329</v>
+      </c>
+      <c r="R26" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>4.5</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27">
         <v>250</v>
       </c>
       <c r="G27">
-        <v>101.21875</v>
+        <v>100.87891</v>
       </c>
       <c r="H27">
         <v>250</v>
       </c>
       <c r="I27">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J27">
-        <v>4.365</v>
+        <v>4.402</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L27">
-        <v>3368.82</v>
+        <v>3399.73</v>
       </c>
       <c r="M27">
-        <v>256415.7</v>
+        <v>255597</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P27">
         <v>11.5</v>
       </c>
       <c r="Q27">
-        <v>11.71506849315069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>11.71232876712329</v>
+      </c>
+      <c r="R27" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>4.5</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28">
         <v>250</v>
       </c>
       <c r="G28">
-        <v>101.21875</v>
+        <v>100.87891</v>
       </c>
       <c r="H28">
         <v>250</v>
       </c>
       <c r="I28">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J28">
-        <v>4.365</v>
+        <v>4.402</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L28">
-        <v>3368.82</v>
+        <v>3399.73</v>
       </c>
       <c r="M28">
-        <v>256415.7</v>
+        <v>255597</v>
       </c>
       <c r="N28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P28">
         <v>12</v>
       </c>
       <c r="Q28">
-        <v>11.71506849315069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>11.71232876712329</v>
+      </c>
+      <c r="R28" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>4.75</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29">
         <v>250</v>
       </c>
       <c r="G29">
-        <v>103.21875</v>
+        <v>102.91016</v>
       </c>
       <c r="H29">
         <v>250</v>
       </c>
       <c r="I29">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J29">
-        <v>4.416</v>
+        <v>4.447</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L29">
-        <v>3555.98</v>
+        <v>3588.6</v>
       </c>
       <c r="M29">
-        <v>261602.86</v>
+        <v>260863.99</v>
       </c>
       <c r="N29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P29">
         <v>12.5</v>
       </c>
       <c r="Q29">
-        <v>12.71780821917808</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>12.71506849315069</v>
+      </c>
+      <c r="R29" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>4.75</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30">
         <v>250</v>
       </c>
       <c r="G30">
-        <v>103.21875</v>
+        <v>102.91016</v>
       </c>
       <c r="H30">
         <v>250</v>
       </c>
       <c r="I30">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J30">
-        <v>4.416</v>
+        <v>4.447</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30">
-        <v>3555.98</v>
+        <v>3588.6</v>
       </c>
       <c r="M30">
-        <v>261602.86</v>
+        <v>260863.99</v>
       </c>
       <c r="N30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P30">
         <v>13</v>
       </c>
       <c r="Q30">
-        <v>12.71780821917808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>12.71506849315069</v>
+      </c>
+      <c r="R30" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31">
         <v>250</v>
       </c>
       <c r="G31">
-        <v>105.625</v>
+        <v>105.30859</v>
       </c>
       <c r="H31">
         <v>250</v>
       </c>
       <c r="I31">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J31">
-        <v>4.424</v>
+        <v>4.456</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31">
-        <v>645.38</v>
+        <v>679.35</v>
       </c>
       <c r="M31">
-        <v>264707.88</v>
+        <v>263950.84</v>
       </c>
       <c r="N31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P31">
         <v>13.5</v>
       </c>
       <c r="Q31">
-        <v>12.96164383561644</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>12.95890410958904</v>
+      </c>
+      <c r="R31" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>4.375</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32">
         <v>250</v>
       </c>
       <c r="G32">
-        <v>99.01563</v>
+        <v>98.71875</v>
       </c>
       <c r="H32">
         <v>250</v>
       </c>
       <c r="I32">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J32">
-        <v>4.471</v>
+        <v>4.501</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L32">
-        <v>3275.24</v>
+        <v>3305.29</v>
       </c>
       <c r="M32">
-        <v>250814.3</v>
+        <v>250102.17</v>
       </c>
       <c r="N32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P32">
         <v>14</v>
       </c>
       <c r="Q32">
-        <v>13.71780821917808</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>13.71506849315069</v>
+      </c>
+      <c r="R32" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>4.5</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33">
         <v>250</v>
       </c>
       <c r="G33">
-        <v>100.15625</v>
+        <v>99.84375</v>
       </c>
       <c r="H33">
         <v>250</v>
       </c>
       <c r="I33">
-        <v>10000</v>
+        <v>29900</v>
       </c>
       <c r="J33">
-        <v>4.485</v>
+        <v>4.515</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L33">
-        <v>580.84</v>
+        <v>611.41</v>
       </c>
       <c r="M33">
-        <v>250971.47</v>
+        <v>250220.79</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P33">
         <v>14.5</v>
       </c>
       <c r="Q33">
-        <v>13.96164383561644</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>13.95890410958904</v>
+      </c>
+      <c r="R33" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34">
         <v>250</v>
       </c>
       <c r="G34">
-        <v>89.17188</v>
+        <v>88.90625</v>
       </c>
       <c r="H34">
         <v>250</v>
       </c>
       <c r="I34">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J34">
-        <v>4.515</v>
+        <v>4.542</v>
       </c>
       <c r="K34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L34">
-        <v>2620.19</v>
+        <v>2644.23</v>
       </c>
       <c r="M34">
-        <v>225549.88</v>
+        <v>224909.86</v>
       </c>
       <c r="N34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P34">
         <v>15</v>
       </c>
       <c r="Q34">
-        <v>14.71780821917808</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>14.71506849315069</v>
+      </c>
+      <c r="R34" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>4.5</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35">
         <v>250</v>
       </c>
       <c r="G35">
-        <v>99.30859</v>
+        <v>99.15234</v>
       </c>
       <c r="H35">
         <v>250</v>
       </c>
       <c r="I35">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J35">
-        <v>4.563</v>
+        <v>4.577</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35">
-        <v>3368.82</v>
+        <v>3399.73</v>
       </c>
       <c r="M35">
-        <v>251640.31</v>
+        <v>251280.59</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P35">
         <v>15.5</v>
       </c>
       <c r="Q35">
-        <v>15.21369863013699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>15.21095890410959</v>
+      </c>
+      <c r="R35" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>4.625</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F36">
         <v>250</v>
       </c>
       <c r="G36">
-        <v>100.48828</v>
+        <v>100.32813</v>
       </c>
       <c r="H36">
         <v>250</v>
       </c>
       <c r="I36">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J36">
-        <v>4.58</v>
+        <v>4.595</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36">
-        <v>3462.4</v>
+        <v>3494.16</v>
       </c>
       <c r="M36">
-        <v>254683.1</v>
+        <v>254314.47</v>
       </c>
       <c r="N36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P36">
         <v>16</v>
       </c>
       <c r="Q36">
-        <v>15.71780821917808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>15.71506849315069</v>
+      </c>
+      <c r="R36" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>3.875</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F37">
         <v>250</v>
       </c>
       <c r="G37">
-        <v>91.65625</v>
+        <v>91.40625</v>
       </c>
       <c r="H37">
         <v>250</v>
       </c>
       <c r="I37">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J37">
-        <v>4.611</v>
+        <v>4.635</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L37">
-        <v>2900.93</v>
+        <v>2927.54</v>
       </c>
       <c r="M37">
-        <v>232041.56</v>
+        <v>231443.17</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P37">
         <v>16.5</v>
       </c>
       <c r="Q37">
-        <v>16.21643835616439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>16.21369863013699</v>
+      </c>
+      <c r="R37" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>4.75</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F38">
         <v>250</v>
       </c>
       <c r="G38">
-        <v>101.53125</v>
+        <v>101.27344</v>
       </c>
       <c r="H38">
         <v>250</v>
       </c>
       <c r="I38">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J38">
-        <v>4.617</v>
+        <v>4.639</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L38">
-        <v>3555.98</v>
+        <v>3588.6</v>
       </c>
       <c r="M38">
-        <v>257384.11</v>
+        <v>256772.19</v>
       </c>
       <c r="N38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P38">
         <v>17</v>
       </c>
       <c r="Q38">
-        <v>16.72054794520548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>16.71780821917808</v>
+      </c>
+      <c r="R38" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>3.75</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F39">
         <v>250</v>
       </c>
       <c r="G39">
-        <v>89.35938</v>
+        <v>89.12891</v>
       </c>
       <c r="H39">
         <v>250</v>
       </c>
       <c r="I39">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J39">
-        <v>4.655</v>
+        <v>4.677</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L39">
-        <v>2807.35</v>
+        <v>2833.1</v>
       </c>
       <c r="M39">
-        <v>226205.79</v>
+        <v>225655.37</v>
       </c>
       <c r="N39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P39">
         <v>17.5</v>
       </c>
       <c r="Q39">
-        <v>17.21643835616439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>17.21369863013699</v>
+      </c>
+      <c r="R39" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>3.125</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40">
         <v>250</v>
       </c>
       <c r="G40">
-        <v>81.20313</v>
+        <v>80.98047</v>
       </c>
       <c r="H40">
         <v>250</v>
       </c>
       <c r="I40">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J40">
-        <v>4.701</v>
+        <v>4.722</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L40">
-        <v>2339.46</v>
+        <v>2360.92</v>
       </c>
       <c r="M40">
-        <v>205347.27</v>
+        <v>204812.09</v>
       </c>
       <c r="N40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P40">
         <v>18</v>
       </c>
       <c r="Q40">
-        <v>17.72054794520548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>17.71780821917808</v>
+      </c>
+      <c r="R40" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>2.75</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F41">
         <v>250</v>
       </c>
       <c r="G41">
-        <v>76.07813</v>
+        <v>75.82813</v>
       </c>
       <c r="H41">
         <v>250</v>
       </c>
       <c r="I41">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J41">
-        <v>4.724</v>
+        <v>4.748</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L41">
-        <v>2058.72</v>
+        <v>2077.61</v>
       </c>
       <c r="M41">
-        <v>192254.03</v>
+        <v>191647.92</v>
       </c>
       <c r="N41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P41">
         <v>18.5</v>
       </c>
       <c r="Q41">
-        <v>18.21643835616439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>18.21369863013699</v>
+      </c>
+      <c r="R41" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>3.125</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F42">
         <v>250</v>
       </c>
       <c r="G42">
-        <v>80.25</v>
+        <v>79.97656000000001</v>
       </c>
       <c r="H42">
         <v>250</v>
       </c>
       <c r="I42">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J42">
-        <v>4.727</v>
+        <v>4.753</v>
       </c>
       <c r="K42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L42">
-        <v>2339.46</v>
+        <v>2360.92</v>
       </c>
       <c r="M42">
-        <v>202964.46</v>
+        <v>202302.33</v>
       </c>
       <c r="N42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P42">
         <v>19</v>
       </c>
       <c r="Q42">
-        <v>18.72054794520548</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>18.71780821917808</v>
+      </c>
+      <c r="R42" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>3.625</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43">
         <v>250</v>
       </c>
       <c r="G43">
-        <v>86.06999999999999</v>
+        <v>85.85156000000001</v>
       </c>
       <c r="H43">
         <v>250</v>
       </c>
       <c r="I43">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="J43">
-        <v>4.737</v>
+        <v>4.757</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L43">
-        <v>2713.77</v>
+        <v>2738.67</v>
       </c>
       <c r="M43">
-        <v>217888.77</v>
+        <v>217367.58</v>
       </c>
       <c r="N43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43">
         <v>19.5</v>
       </c>
       <c r="Q43">
-        <v>19.21643835616439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>19.21369863013699</v>
+      </c>
+      <c r="R43" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>3.125</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44">
         <v>250</v>
       </c>
       <c r="G44">
-        <v>79.20313</v>
+        <v>78.90625</v>
       </c>
       <c r="H44">
         <v>250</v>
       </c>
       <c r="I44">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J44">
-        <v>4.735</v>
+        <v>4.762</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44">
-        <v>2339.46</v>
+        <v>2360.92</v>
       </c>
       <c r="M44">
-        <v>200347.27</v>
+        <v>199626.55</v>
       </c>
       <c r="N44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P44">
         <v>20.5</v>
       </c>
       <c r="Q44">
-        <v>20.21917808219178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>20.21643835616439</v>
+      </c>
+      <c r="R44" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>2.5</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F45">
         <v>250</v>
       </c>
       <c r="G45">
-        <v>70.625</v>
+        <v>70.35938</v>
       </c>
       <c r="H45">
         <v>250</v>
       </c>
       <c r="I45">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J45">
-        <v>4.743</v>
+        <v>4.769</v>
       </c>
       <c r="K45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45">
-        <v>1871.57</v>
+        <v>1888.74</v>
       </c>
       <c r="M45">
-        <v>178434.07</v>
+        <v>177787.18</v>
       </c>
       <c r="N45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P45">
         <v>21</v>
       </c>
       <c r="Q45">
-        <v>20.72328767123288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>20.72054794520548</v>
+      </c>
+      <c r="R45" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>2.875</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F46">
         <v>250</v>
       </c>
       <c r="G46">
-        <v>75.21875</v>
+        <v>74.94922</v>
       </c>
       <c r="H46">
         <v>250</v>
       </c>
       <c r="I46">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J46">
-        <v>4.74</v>
+        <v>4.765</v>
       </c>
       <c r="K46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L46">
-        <v>2152.3</v>
+        <v>2172.05</v>
       </c>
       <c r="M46">
-        <v>190199.18</v>
+        <v>189545.1</v>
       </c>
       <c r="N46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P46">
         <v>21.5</v>
       </c>
       <c r="Q46">
-        <v>21.21917808219178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>21.21643835616439</v>
+      </c>
+      <c r="R46" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>2.5</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47">
         <v>250</v>
       </c>
       <c r="G47">
-        <v>69.84375</v>
+        <v>69.54297</v>
       </c>
       <c r="H47">
         <v>250</v>
       </c>
       <c r="I47">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J47">
-        <v>4.739</v>
+        <v>4.768</v>
       </c>
       <c r="K47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L47">
-        <v>1871.57</v>
+        <v>1888.74</v>
       </c>
       <c r="M47">
-        <v>176480.95</v>
+        <v>175746.16</v>
       </c>
       <c r="N47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P47">
         <v>22</v>
       </c>
       <c r="Q47">
-        <v>21.72328767123288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>21.72054794520548</v>
+      </c>
+      <c r="R47" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>2.25</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48">
         <v>250</v>
       </c>
       <c r="G48">
-        <v>66.04688</v>
+        <v>65.76953</v>
       </c>
       <c r="H48">
         <v>250</v>
       </c>
       <c r="I48">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J48">
-        <v>4.739</v>
+        <v>4.765</v>
       </c>
       <c r="K48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L48">
-        <v>1684.41</v>
+        <v>1699.86</v>
       </c>
       <c r="M48">
-        <v>166801.6</v>
+        <v>166123.69</v>
       </c>
       <c r="N48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P48">
         <v>22.5</v>
       </c>
       <c r="Q48">
-        <v>22.21917808219178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>22.21643835616439</v>
+      </c>
+      <c r="R48" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F49">
         <v>250</v>
       </c>
       <c r="G49">
-        <v>75.88672</v>
+        <v>75.65625</v>
       </c>
       <c r="H49">
         <v>250</v>
       </c>
       <c r="I49">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="J49">
-        <v>4.746</v>
+        <v>4.767</v>
       </c>
       <c r="K49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L49">
-        <v>2245.88</v>
+        <v>2266.48</v>
       </c>
       <c r="M49">
-        <v>191962.68</v>
+        <v>191407.11</v>
       </c>
       <c r="N49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P49">
         <v>23</v>
       </c>
       <c r="Q49">
-        <v>22.72328767123288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>22.72054794520548</v>
+      </c>
+      <c r="R49" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>2.75</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50">
         <v>250</v>
       </c>
       <c r="G50">
-        <v>72.14063</v>
+        <v>71.85938</v>
       </c>
       <c r="H50">
         <v>250</v>
       </c>
       <c r="I50">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J50">
-        <v>4.743</v>
+        <v>4.768</v>
       </c>
       <c r="K50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L50">
-        <v>2058.72</v>
+        <v>2077.61</v>
       </c>
       <c r="M50">
-        <v>182410.28</v>
+        <v>181726.05</v>
       </c>
       <c r="N50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P50">
         <v>23.5</v>
       </c>
       <c r="Q50">
-        <v>23.21917808219178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>23.21643835616439</v>
+      </c>
+      <c r="R50" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51">
         <v>250</v>
       </c>
       <c r="G51">
-        <v>75.34375</v>
+        <v>75.01953</v>
       </c>
       <c r="H51">
         <v>250</v>
       </c>
       <c r="I51">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J51">
-        <v>4.743</v>
+        <v>4.771</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L51">
-        <v>2245.88</v>
+        <v>2266.48</v>
       </c>
       <c r="M51">
-        <v>190605.26</v>
+        <v>189815.31</v>
       </c>
       <c r="N51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P51">
         <v>24</v>
       </c>
       <c r="Q51">
-        <v>23.72328767123288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>23.72054794520548</v>
+      </c>
+      <c r="R51" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F52">
         <v>250</v>
       </c>
       <c r="G52">
-        <v>75.10938</v>
+        <v>74.83593999999999</v>
       </c>
       <c r="H52">
         <v>250</v>
       </c>
       <c r="I52">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J52">
-        <v>4.739</v>
+        <v>4.763</v>
       </c>
       <c r="K52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L52">
-        <v>2245.88</v>
+        <v>2266.48</v>
       </c>
       <c r="M52">
-        <v>190019.32</v>
+        <v>189356.32</v>
       </c>
       <c r="N52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P52">
         <v>24.5</v>
       </c>
       <c r="Q52">
-        <v>24.22191780821918</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>24.21917808219178</v>
+      </c>
+      <c r="R52" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F53">
         <v>250</v>
       </c>
       <c r="G53">
-        <v>74.9375</v>
+        <v>74.66797</v>
       </c>
       <c r="H53">
         <v>250</v>
       </c>
       <c r="I53">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J53">
-        <v>4.731</v>
+        <v>4.754</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L53">
-        <v>2245.88</v>
+        <v>2266.48</v>
       </c>
       <c r="M53">
-        <v>189589.63</v>
+        <v>188936.4</v>
       </c>
       <c r="N53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P53">
         <v>25</v>
       </c>
       <c r="Q53">
-        <v>24.72602739726027</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>24.72328767123288</v>
+      </c>
+      <c r="R53" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54">
         <v>2.25</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F54">
         <v>250</v>
       </c>
       <c r="G54">
-        <v>63.83203</v>
+        <v>63.60547</v>
       </c>
       <c r="H54">
         <v>250</v>
       </c>
       <c r="I54">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J54">
-        <v>4.719</v>
+        <v>4.739</v>
       </c>
       <c r="K54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L54">
-        <v>1684.41</v>
+        <v>1699.86</v>
       </c>
       <c r="M54">
-        <v>161264.49</v>
+        <v>160713.53</v>
       </c>
       <c r="N54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P54">
         <v>25.5</v>
       </c>
       <c r="Q54">
-        <v>25.22191780821918</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>25.21917808219178</v>
+      </c>
+      <c r="R54" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F55">
         <v>250</v>
       </c>
       <c r="G55">
-        <v>59.95313</v>
+        <v>59.70703</v>
       </c>
       <c r="H55">
         <v>250</v>
       </c>
       <c r="I55">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J55">
-        <v>4.7</v>
+        <v>4.724</v>
       </c>
       <c r="K55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L55">
-        <v>1497.25</v>
+        <v>1510.99</v>
       </c>
       <c r="M55">
-        <v>151380.06</v>
+        <v>150778.57</v>
       </c>
       <c r="N55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P55">
         <v>26</v>
       </c>
       <c r="Q55">
-        <v>25.72602739726027</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>25.72328767123288</v>
+      </c>
+      <c r="R55" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>1.375</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F56">
         <v>250</v>
       </c>
       <c r="G56">
-        <v>50.37891</v>
+        <v>50.18359</v>
       </c>
       <c r="H56">
         <v>250</v>
       </c>
       <c r="I56">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J56">
-        <v>4.682</v>
+        <v>4.702</v>
       </c>
       <c r="K56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L56">
-        <v>1029.36</v>
+        <v>1038.8</v>
       </c>
       <c r="M56">
-        <v>126976.63</v>
+        <v>126497.78</v>
       </c>
       <c r="N56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P56">
         <v>26.5</v>
       </c>
       <c r="Q56">
-        <v>26.22191780821918</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>26.21917808219178</v>
+      </c>
+      <c r="R56" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>1.875</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57">
         <v>250</v>
       </c>
       <c r="G57">
-        <v>57.57813</v>
+        <v>57.28906</v>
       </c>
       <c r="H57">
         <v>250</v>
       </c>
       <c r="I57">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J57">
-        <v>4.672</v>
+        <v>4.699</v>
       </c>
       <c r="K57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L57">
-        <v>1403.67</v>
+        <v>1416.55</v>
       </c>
       <c r="M57">
-        <v>145348.98</v>
+        <v>144639.21</v>
       </c>
       <c r="N57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P57">
         <v>27</v>
       </c>
       <c r="Q57">
-        <v>26.72602739726027</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>26.72328767123288</v>
+      </c>
+      <c r="R57" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58">
         <v>250</v>
       </c>
       <c r="G58">
-        <v>59.16406</v>
+        <v>58.90234</v>
       </c>
       <c r="H58">
         <v>250</v>
       </c>
       <c r="I58">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J58">
-        <v>4.665</v>
+        <v>4.689</v>
       </c>
       <c r="K58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L58">
-        <v>1497.25</v>
+        <v>1510.99</v>
       </c>
       <c r="M58">
-        <v>149407.41</v>
+        <v>148766.85</v>
       </c>
       <c r="N58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P58">
         <v>27.5</v>
       </c>
       <c r="Q58">
-        <v>27.22191780821918</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>27.21917808219178</v>
+      </c>
+      <c r="R58" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>2.25</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59">
         <v>250</v>
       </c>
       <c r="G59">
-        <v>62.76563</v>
+        <v>62.52344</v>
       </c>
       <c r="H59">
         <v>250</v>
       </c>
       <c r="I59">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J59">
-        <v>4.656</v>
+        <v>4.677</v>
       </c>
       <c r="K59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L59">
-        <v>1684.41</v>
+        <v>1699.86</v>
       </c>
       <c r="M59">
-        <v>158598.47</v>
+        <v>158008.46</v>
       </c>
       <c r="N59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P59">
         <v>28</v>
       </c>
       <c r="Q59">
-        <v>27.72602739726027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>27.72328767123288</v>
+      </c>
+      <c r="R59" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60">
         <v>250</v>
       </c>
       <c r="G60">
-        <v>74.16406000000001</v>
+        <v>73.91406000000001</v>
       </c>
       <c r="H60">
         <v>250</v>
       </c>
       <c r="I60">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="J60">
-        <v>4.654</v>
+        <v>4.674</v>
       </c>
       <c r="K60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L60">
-        <v>2245.88</v>
+        <v>2266.48</v>
       </c>
       <c r="M60">
-        <v>187656.04</v>
+        <v>187051.64</v>
       </c>
       <c r="N60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P60">
         <v>28.5</v>
       </c>
       <c r="Q60">
-        <v>28.22465753424657</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>28.22191780821918</v>
+      </c>
+      <c r="R60" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3.625</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F61">
         <v>250</v>
       </c>
       <c r="G61">
-        <v>89.94141</v>
+        <v>83.57422</v>
       </c>
       <c r="H61">
         <v>250</v>
       </c>
       <c r="I61">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J61">
-        <v>4.64</v>
+        <v>4.669</v>
       </c>
       <c r="K61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L61">
-        <v>516.3</v>
+        <v>2738.67</v>
       </c>
       <c r="M61">
-        <v>225369.82</v>
+        <v>211674.22</v>
       </c>
       <c r="N61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P61">
         <v>29</v>
       </c>
       <c r="Q61">
-        <v>28.47671232876712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>28.72602739726027</v>
+      </c>
+      <c r="R61" s="2">
+        <v>45444.75416666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>3.625</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62">
         <v>250</v>
       </c>
       <c r="G62">
-        <v>83.90625</v>
+        <v>83.65477</v>
       </c>
       <c r="H62">
         <v>250</v>
@@ -4383,28 +4573,31 @@
         <v>10000</v>
       </c>
       <c r="J62">
-        <v>4.641</v>
+        <v>4.659</v>
       </c>
       <c r="K62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L62">
-        <v>467.9</v>
+        <v>492.53</v>
       </c>
       <c r="M62">
-        <v>210233.53</v>
+        <v>209629.44</v>
       </c>
       <c r="N62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P62">
         <v>29.5</v>
       </c>
       <c r="Q62">
-        <v>28.97260273972603</v>
+        <v>28.96986301369863</v>
+      </c>
+      <c r="R62" s="2">
+        <v>45444.75416666667</v>
       </c>
     </row>
   </sheetData>

--- a/market_observed_usts_auctioned_after_2005.xlsx
+++ b/market_observed_usts_auctioned_after_2005.xlsx
@@ -241,7 +241,7 @@
     <t>US Treasury 3.625% 02/15/2053  912810TN8</t>
   </si>
   <si>
-    <t>US Treasury 3.625% 05/15/2053  912810TR9</t>
+    <t>US Treasury 4.125% 08/15/2053  912810TT5</t>
   </si>
   <si>
     <t>05/15/2034</t>
@@ -412,7 +412,7 @@
     <t>02/15/2053</t>
   </si>
   <si>
-    <t>05/15/2053</t>
+    <t>08/15/2053</t>
   </si>
   <si>
     <t>Ask</t>
@@ -589,7 +589,7 @@
     <t>View  for 912810TN8 CUSIP</t>
   </si>
   <si>
-    <t>View  for 912810TR9 CUSIP</t>
+    <t>View  for 912810TT5 CUSIP</t>
   </si>
   <si>
     <t>CUSIP 91282CKQ3</t>
@@ -760,7 +760,7 @@
     <t>CUSIP 912810TN8</t>
   </si>
   <si>
-    <t>CUSIP 912810TR9</t>
+    <t>CUSIP 912810TT5</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="Q2">
-        <v>9.956164383561644</v>
+        <v>9.953424657534246</v>
       </c>
       <c r="R2" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1290,10 +1290,10 @@
         <v>0.25</v>
       </c>
       <c r="Q3">
-        <v>0.3315068493150685</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="R3" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1346,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>1.994520547945206</v>
+        <v>1.991780821917808</v>
       </c>
       <c r="R4" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="Q5">
-        <v>19.96438356164384</v>
+        <v>19.96164383561644</v>
       </c>
       <c r="R5" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1458,10 +1458,10 @@
         <v>0.5</v>
       </c>
       <c r="Q6">
-        <v>0.4712328767123288</v>
+        <v>0.4684931506849315</v>
       </c>
       <c r="R6" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1514,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>2.950684931506849</v>
+        <v>2.947945205479452</v>
       </c>
       <c r="R7" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1570,10 +1570,10 @@
         <v>30</v>
       </c>
       <c r="Q8">
-        <v>29.96986301369863</v>
+        <v>29.96712328767123</v>
       </c>
       <c r="R8" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1626,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>4.997260273972603</v>
+        <v>4.994520547945205</v>
       </c>
       <c r="R9" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1682,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.9506849315068493</v>
+        <v>0.947945205479452</v>
       </c>
       <c r="R10" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1738,10 +1738,10 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>6.997260273972603</v>
+        <v>6.994520547945205</v>
       </c>
       <c r="R11" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1794,10 +1794,10 @@
         <v>1.5</v>
       </c>
       <c r="Q12">
-        <v>1.495890410958904</v>
+        <v>1.493150684931507</v>
       </c>
       <c r="R12" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1850,10 +1850,10 @@
         <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>2.454794520547945</v>
+        <v>2.452054794520548</v>
       </c>
       <c r="R13" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1906,10 +1906,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>3.454794520547945</v>
+        <v>3.452054794520548</v>
       </c>
       <c r="R14" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1962,10 +1962,10 @@
         <v>4</v>
       </c>
       <c r="Q15">
-        <v>3.953424657534247</v>
+        <v>3.950684931506849</v>
       </c>
       <c r="R15" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2018,10 +2018,10 @@
         <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>4.457534246575342</v>
+        <v>4.454794520547945</v>
       </c>
       <c r="R16" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2074,10 +2074,10 @@
         <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>5.416438356164384</v>
+        <v>5.413698630136986</v>
       </c>
       <c r="R17" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2130,10 +2130,10 @@
         <v>6</v>
       </c>
       <c r="Q18">
-        <v>5.912328767123288</v>
+        <v>5.909589041095891</v>
       </c>
       <c r="R18" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2186,10 +2186,10 @@
         <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>6.416438356164384</v>
+        <v>6.413698630136986</v>
       </c>
       <c r="R19" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2242,10 +2242,10 @@
         <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>7.457534246575342</v>
+        <v>7.454794520547945</v>
       </c>
       <c r="R20" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2298,10 +2298,10 @@
         <v>8</v>
       </c>
       <c r="Q21">
-        <v>7.956164383561644</v>
+        <v>7.953424657534247</v>
       </c>
       <c r="R21" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2354,10 +2354,10 @@
         <v>8.5</v>
       </c>
       <c r="Q22">
-        <v>8.46027397260274</v>
+        <v>8.457534246575342</v>
       </c>
       <c r="R22" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2410,10 +2410,10 @@
         <v>9</v>
       </c>
       <c r="Q23">
-        <v>8.956164383561644</v>
+        <v>8.953424657534246</v>
       </c>
       <c r="R23" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2466,10 +2466,10 @@
         <v>9.5</v>
       </c>
       <c r="Q24">
-        <v>9.46027397260274</v>
+        <v>9.457534246575342</v>
       </c>
       <c r="R24" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2522,10 +2522,10 @@
         <v>10.5</v>
       </c>
       <c r="Q25">
-        <v>9.956164383561644</v>
+        <v>9.953424657534246</v>
       </c>
       <c r="R25" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2578,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="Q26">
-        <v>11.71232876712329</v>
+        <v>11.70958904109589</v>
       </c>
       <c r="R26" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2634,10 +2634,10 @@
         <v>11.5</v>
       </c>
       <c r="Q27">
-        <v>11.71232876712329</v>
+        <v>11.70958904109589</v>
       </c>
       <c r="R27" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2690,10 +2690,10 @@
         <v>12</v>
       </c>
       <c r="Q28">
-        <v>11.71232876712329</v>
+        <v>11.70958904109589</v>
       </c>
       <c r="R28" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2746,10 +2746,10 @@
         <v>12.5</v>
       </c>
       <c r="Q29">
-        <v>12.71506849315069</v>
+        <v>12.71232876712329</v>
       </c>
       <c r="R29" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2802,10 +2802,10 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <v>12.71506849315069</v>
+        <v>12.71232876712329</v>
       </c>
       <c r="R30" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2858,10 +2858,10 @@
         <v>13.5</v>
       </c>
       <c r="Q31">
-        <v>12.95890410958904</v>
+        <v>12.95616438356164</v>
       </c>
       <c r="R31" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2914,10 +2914,10 @@
         <v>14</v>
       </c>
       <c r="Q32">
-        <v>13.71506849315069</v>
+        <v>13.71232876712329</v>
       </c>
       <c r="R32" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2970,10 +2970,10 @@
         <v>14.5</v>
       </c>
       <c r="Q33">
-        <v>13.95890410958904</v>
+        <v>13.95616438356164</v>
       </c>
       <c r="R33" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3026,10 +3026,10 @@
         <v>15</v>
       </c>
       <c r="Q34">
-        <v>14.71506849315069</v>
+        <v>14.71232876712329</v>
       </c>
       <c r="R34" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3082,10 +3082,10 @@
         <v>15.5</v>
       </c>
       <c r="Q35">
-        <v>15.21095890410959</v>
+        <v>15.20821917808219</v>
       </c>
       <c r="R35" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3138,10 +3138,10 @@
         <v>16</v>
       </c>
       <c r="Q36">
-        <v>15.71506849315069</v>
+        <v>15.71232876712329</v>
       </c>
       <c r="R36" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3194,10 +3194,10 @@
         <v>16.5</v>
       </c>
       <c r="Q37">
-        <v>16.21369863013699</v>
+        <v>16.21095890410959</v>
       </c>
       <c r="R37" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3250,10 +3250,10 @@
         <v>17</v>
       </c>
       <c r="Q38">
-        <v>16.71780821917808</v>
+        <v>16.71506849315069</v>
       </c>
       <c r="R38" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3306,10 +3306,10 @@
         <v>17.5</v>
       </c>
       <c r="Q39">
-        <v>17.21369863013699</v>
+        <v>17.21095890410959</v>
       </c>
       <c r="R39" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3362,10 +3362,10 @@
         <v>18</v>
       </c>
       <c r="Q40">
-        <v>17.71780821917808</v>
+        <v>17.71506849315069</v>
       </c>
       <c r="R40" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3418,10 +3418,10 @@
         <v>18.5</v>
       </c>
       <c r="Q41">
-        <v>18.21369863013699</v>
+        <v>18.21095890410959</v>
       </c>
       <c r="R41" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3474,10 +3474,10 @@
         <v>19</v>
       </c>
       <c r="Q42">
-        <v>18.71780821917808</v>
+        <v>18.71506849315069</v>
       </c>
       <c r="R42" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3530,10 +3530,10 @@
         <v>19.5</v>
       </c>
       <c r="Q43">
-        <v>19.21369863013699</v>
+        <v>19.21095890410959</v>
       </c>
       <c r="R43" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3586,10 +3586,10 @@
         <v>20.5</v>
       </c>
       <c r="Q44">
-        <v>20.21643835616439</v>
+        <v>20.21369863013699</v>
       </c>
       <c r="R44" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3642,10 +3642,10 @@
         <v>21</v>
       </c>
       <c r="Q45">
-        <v>20.72054794520548</v>
+        <v>20.71780821917808</v>
       </c>
       <c r="R45" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3698,10 +3698,10 @@
         <v>21.5</v>
       </c>
       <c r="Q46">
-        <v>21.21643835616439</v>
+        <v>21.21369863013699</v>
       </c>
       <c r="R46" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3754,10 +3754,10 @@
         <v>22</v>
       </c>
       <c r="Q47">
-        <v>21.72054794520548</v>
+        <v>21.71780821917808</v>
       </c>
       <c r="R47" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3810,10 +3810,10 @@
         <v>22.5</v>
       </c>
       <c r="Q48">
-        <v>22.21643835616439</v>
+        <v>22.21369863013699</v>
       </c>
       <c r="R48" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3866,10 +3866,10 @@
         <v>23</v>
       </c>
       <c r="Q49">
-        <v>22.72054794520548</v>
+        <v>22.71780821917808</v>
       </c>
       <c r="R49" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3922,10 +3922,10 @@
         <v>23.5</v>
       </c>
       <c r="Q50">
-        <v>23.21643835616439</v>
+        <v>23.21369863013699</v>
       </c>
       <c r="R50" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3978,10 +3978,10 @@
         <v>24</v>
       </c>
       <c r="Q51">
-        <v>23.72054794520548</v>
+        <v>23.71780821917808</v>
       </c>
       <c r="R51" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4034,10 +4034,10 @@
         <v>24.5</v>
       </c>
       <c r="Q52">
-        <v>24.21917808219178</v>
+        <v>24.21643835616439</v>
       </c>
       <c r="R52" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4090,10 +4090,10 @@
         <v>25</v>
       </c>
       <c r="Q53">
-        <v>24.72328767123288</v>
+        <v>24.72054794520548</v>
       </c>
       <c r="R53" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4146,10 +4146,10 @@
         <v>25.5</v>
       </c>
       <c r="Q54">
-        <v>25.21917808219178</v>
+        <v>25.21643835616439</v>
       </c>
       <c r="R54" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4202,10 +4202,10 @@
         <v>26</v>
       </c>
       <c r="Q55">
-        <v>25.72328767123288</v>
+        <v>25.72054794520548</v>
       </c>
       <c r="R55" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4258,10 +4258,10 @@
         <v>26.5</v>
       </c>
       <c r="Q56">
-        <v>26.21917808219178</v>
+        <v>26.21643835616439</v>
       </c>
       <c r="R56" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4314,10 +4314,10 @@
         <v>27</v>
       </c>
       <c r="Q57">
-        <v>26.72328767123288</v>
+        <v>26.72054794520548</v>
       </c>
       <c r="R57" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4370,10 +4370,10 @@
         <v>27.5</v>
       </c>
       <c r="Q58">
-        <v>27.21917808219178</v>
+        <v>27.21643835616439</v>
       </c>
       <c r="R58" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4426,10 +4426,10 @@
         <v>28</v>
       </c>
       <c r="Q59">
-        <v>27.72328767123288</v>
+        <v>27.72054794520548</v>
       </c>
       <c r="R59" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4482,10 +4482,10 @@
         <v>28.5</v>
       </c>
       <c r="Q60">
-        <v>28.22191780821918</v>
+        <v>28.21917808219178</v>
       </c>
       <c r="R60" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4538,10 +4538,10 @@
         <v>29</v>
       </c>
       <c r="Q61">
-        <v>28.72602739726027</v>
+        <v>28.72328767123288</v>
       </c>
       <c r="R61" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4552,7 +4552,7 @@
         <v>75</v>
       </c>
       <c r="C62">
-        <v>3.625</v>
+        <v>4.125</v>
       </c>
       <c r="D62" t="s">
         <v>132</v>
@@ -4564,25 +4564,25 @@
         <v>250</v>
       </c>
       <c r="G62">
-        <v>83.65477</v>
+        <v>91.53516</v>
       </c>
       <c r="H62">
         <v>250</v>
       </c>
       <c r="I62">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J62">
-        <v>4.659</v>
+        <v>4.658</v>
       </c>
       <c r="K62" t="s">
         <v>134</v>
       </c>
       <c r="L62">
-        <v>492.53</v>
+        <v>3116.41</v>
       </c>
       <c r="M62">
-        <v>209629.44</v>
+        <v>231954.3</v>
       </c>
       <c r="N62" t="s">
         <v>191</v>
@@ -4594,10 +4594,10 @@
         <v>29.5</v>
       </c>
       <c r="Q62">
-        <v>28.96986301369863</v>
+        <v>29.21917808219178</v>
       </c>
       <c r="R62" s="2">
-        <v>45444.75416666667</v>
+        <v>45445.7375</v>
       </c>
     </row>
   </sheetData>
